--- a/summary_statistics/SUMMARY_REGION_2020-2050.xlsx
+++ b/summary_statistics/SUMMARY_REGION_2020-2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/africa-exposure-data/exposure_statistics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/africa-exposure-data/summary_statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1CC0A0-C2A0-C74B-89D1-0EC4E6074427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB0A47-268D-A040-BF53-D984D06BE2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="460" windowWidth="26460" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12380" yWindow="460" windowWidth="16040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY_REGION" sheetId="1" r:id="rId1"/>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1673,104 +1673,104 @@
         <v>2</v>
       </c>
       <c r="C2" s="2">
-        <v>17114224.05675</v>
+        <v>17352802</v>
       </c>
       <c r="D2" s="2">
-        <v>18758194.745353598</v>
+        <v>19035686</v>
       </c>
       <c r="E2" s="2">
-        <v>20340093.554832101</v>
+        <v>20656966</v>
       </c>
       <c r="F2" s="2">
-        <v>21772001.807273101</v>
+        <v>22125451</v>
       </c>
       <c r="G2" s="2">
-        <v>23111961.573734399</v>
+        <v>23501733</v>
       </c>
       <c r="H2" s="2">
-        <v>24158980.828046799</v>
+        <v>24579958</v>
       </c>
       <c r="I2" s="2">
-        <v>24937861.079709198</v>
+        <v>25378081</v>
       </c>
       <c r="J2" s="2">
-        <v>17773390.1616107</v>
+        <v>18155947</v>
       </c>
       <c r="K2" s="2">
-        <v>19475651.8714935</v>
+        <v>19911832</v>
       </c>
       <c r="L2" s="2">
-        <v>21114018.890535802</v>
+        <v>21604321</v>
       </c>
       <c r="M2" s="2">
-        <v>22595776.666569799</v>
+        <v>23138206</v>
       </c>
       <c r="N2" s="2">
-        <v>23983973.535419799</v>
+        <v>24577682</v>
       </c>
       <c r="O2" s="2">
-        <v>25065784.573228199</v>
+        <v>25704384</v>
       </c>
       <c r="P2" s="2">
-        <v>25861177.408193201</v>
+        <v>26537494</v>
       </c>
       <c r="Q2" s="2">
-        <v>87974371.960504904</v>
+        <v>87974357</v>
       </c>
       <c r="R2" s="2">
-        <v>96552439.293526098</v>
+        <v>96552431</v>
       </c>
       <c r="S2" s="2">
-        <v>104806618.734926</v>
+        <v>104806619</v>
       </c>
       <c r="T2" s="2">
-        <v>112283275.372431</v>
+        <v>112283287</v>
       </c>
       <c r="U2" s="2">
-        <v>119287430.780063</v>
+        <v>119287444</v>
       </c>
       <c r="V2" s="2">
-        <v>124795794.32208499</v>
+        <v>124795824</v>
       </c>
       <c r="W2" s="2">
-        <v>128879798.493926</v>
+        <v>128879791</v>
       </c>
       <c r="X2" s="2">
-        <v>746408002444.15906</v>
+        <v>235831506322</v>
       </c>
       <c r="Y2" s="2">
-        <v>804961522035.10095</v>
+        <v>257952714457</v>
       </c>
       <c r="Z2" s="2">
-        <v>860335260940.896</v>
+        <v>279254877615</v>
       </c>
       <c r="AA2" s="2">
-        <v>909214807154.16296</v>
+        <v>298411316250</v>
       </c>
       <c r="AB2" s="2">
-        <v>953678414208.224</v>
+        <v>316331672345</v>
       </c>
       <c r="AC2" s="2">
-        <v>986475066759.43896</v>
+        <v>330271362111</v>
       </c>
       <c r="AD2" s="2">
-        <v>1011692325366.8199</v>
+        <v>340423651937</v>
       </c>
       <c r="AE2" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.45714237449599637</v>
+        <v>0.46247741431038047</v>
       </c>
       <c r="AF2" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.45505034059577243</v>
+        <v>0.46164196227274723</v>
       </c>
       <c r="AG2" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.46496980452199344</v>
+        <v>0.46496996846478789</v>
       </c>
       <c r="AH2" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>0.35541462853288142</v>
+        <v>0.44350369993478234</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.2">
@@ -1781,104 +1781,104 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>58478620.667614199</v>
+        <v>59420107</v>
       </c>
       <c r="D3" s="2">
-        <v>63655589.657971799</v>
+        <v>64724004</v>
       </c>
       <c r="E3" s="2">
-        <v>68394997.007984102</v>
+        <v>69589164</v>
       </c>
       <c r="F3" s="2">
-        <v>72578540.990911007</v>
+        <v>73896513</v>
       </c>
       <c r="G3" s="2">
-        <v>76188088.675643399</v>
+        <v>77623059</v>
       </c>
       <c r="H3" s="2">
-        <v>79123919.415340498</v>
+        <v>80662985</v>
       </c>
       <c r="I3" s="2">
-        <v>80871676.687228501</v>
+        <v>82490216</v>
       </c>
       <c r="J3" s="2">
-        <v>60064240.942040503</v>
+        <v>61521503</v>
       </c>
       <c r="K3" s="2">
-        <v>65380873.808964401</v>
+        <v>67010959</v>
       </c>
       <c r="L3" s="2">
-        <v>70246014.963297904</v>
+        <v>72044399</v>
       </c>
       <c r="M3" s="2">
-        <v>74538730.981207207</v>
+        <v>76498666</v>
       </c>
       <c r="N3" s="2">
-        <v>78238737.788274303</v>
+        <v>80350060</v>
       </c>
       <c r="O3" s="2">
-        <v>81236099.208254099</v>
+        <v>83485941</v>
       </c>
       <c r="P3" s="2">
-        <v>83011143.983909905</v>
+        <v>85368419</v>
       </c>
       <c r="Q3" s="2">
-        <v>278442125.20934701</v>
+        <v>278442111</v>
       </c>
       <c r="R3" s="2">
-        <v>303462385.32707399</v>
+        <v>303462402</v>
       </c>
       <c r="S3" s="2">
-        <v>326406322.797934</v>
+        <v>326406316</v>
       </c>
       <c r="T3" s="2">
-        <v>346726237.67781502</v>
+        <v>346726264</v>
       </c>
       <c r="U3" s="2">
-        <v>364382263.68142301</v>
+        <v>364382205</v>
       </c>
       <c r="V3" s="2">
-        <v>378801664.39385802</v>
+        <v>378801654</v>
       </c>
       <c r="W3" s="2">
-        <v>387620510.63113397</v>
+        <v>387620431</v>
       </c>
       <c r="X3" s="2">
-        <v>2716187745124.8198</v>
+        <v>878397770038</v>
       </c>
       <c r="Y3" s="2">
-        <v>2928931993550.6899</v>
+        <v>956267907194</v>
       </c>
       <c r="Z3" s="2">
-        <v>3119862810564.77</v>
+        <v>1028192996878</v>
       </c>
       <c r="AA3" s="2">
-        <v>3281664379404.3799</v>
+        <v>1092099113985</v>
       </c>
       <c r="AB3" s="2">
-        <v>3418366087210.1499</v>
+        <v>1147920772471</v>
       </c>
       <c r="AC3" s="2">
-        <v>3522797269933.1099</v>
+        <v>1193013179508</v>
       </c>
       <c r="AD3" s="2">
-        <v>3577985086789.4702</v>
+        <v>1220794227908</v>
       </c>
       <c r="AE3" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.38292722646270794</v>
+        <v>0.38825424868386715</v>
       </c>
       <c r="AF3" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.38203934124485506</v>
+        <v>0.38761920364656888</v>
       </c>
       <c r="AG3" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.39210441070905167</v>
+        <v>0.39210419576225664</v>
       </c>
       <c r="AH3" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>0.31728194901529072</v>
+        <v>0.38979659278414114</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -1889,104 +1889,104 @@
         <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>20777779.227286801</v>
+        <v>21369808</v>
       </c>
       <c r="D4" s="2">
-        <v>22021896.092165601</v>
+        <v>22663127</v>
       </c>
       <c r="E4" s="2">
-        <v>22841275.580487601</v>
+        <v>23537838</v>
       </c>
       <c r="F4" s="2">
-        <v>23391760.661860101</v>
+        <v>24151019</v>
       </c>
       <c r="G4" s="2">
-        <v>23760164.942936499</v>
+        <v>24592343</v>
       </c>
       <c r="H4" s="2">
-        <v>23802856.515017301</v>
+        <v>24708914</v>
       </c>
       <c r="I4" s="2">
-        <v>23746781.513835099</v>
+        <v>24662666</v>
       </c>
       <c r="J4" s="2">
-        <v>21686267.706087898</v>
+        <v>22692910</v>
       </c>
       <c r="K4" s="2">
-        <v>22840369.692285102</v>
+        <v>23934501</v>
       </c>
       <c r="L4" s="2">
-        <v>23505747.784458902</v>
+        <v>24680318</v>
       </c>
       <c r="M4" s="2">
-        <v>23852345.7926552</v>
+        <v>25105203</v>
       </c>
       <c r="N4" s="2">
-        <v>23986816.997672498</v>
+        <v>25322012</v>
       </c>
       <c r="O4" s="2">
-        <v>23753568.667357501</v>
+        <v>25162174</v>
       </c>
       <c r="P4" s="2">
-        <v>23354422.630024102</v>
+        <v>24824885</v>
       </c>
       <c r="Q4" s="2">
-        <v>90291123.353158802</v>
+        <v>90291176</v>
       </c>
       <c r="R4" s="2">
-        <v>94798312.058406696</v>
+        <v>94798340</v>
       </c>
       <c r="S4" s="2">
-        <v>97415863.947032705</v>
+        <v>97415874</v>
       </c>
       <c r="T4" s="2">
-        <v>98822682.656047195</v>
+        <v>98822700</v>
       </c>
       <c r="U4" s="2">
-        <v>99437616.220964104</v>
+        <v>99437633</v>
       </c>
       <c r="V4" s="2">
-        <v>98632598.524906605</v>
+        <v>98632600</v>
       </c>
       <c r="W4" s="2">
-        <v>97153833.313952506</v>
+        <v>97153826</v>
       </c>
       <c r="X4" s="2">
-        <v>1752676568728.2</v>
+        <v>446953613844</v>
       </c>
       <c r="Y4" s="2">
-        <v>1851635161547.6201</v>
+        <v>472048376251</v>
       </c>
       <c r="Z4" s="2">
-        <v>1904352774202.25</v>
+        <v>489001288997</v>
       </c>
       <c r="AA4" s="2">
-        <v>1925828536526.9399</v>
+        <v>500865988207</v>
       </c>
       <c r="AB4" s="2">
-        <v>1923304265656.71</v>
+        <v>509372145644</v>
       </c>
       <c r="AC4" s="2">
-        <v>1887414014326.8501</v>
+        <v>511573465516</v>
       </c>
       <c r="AD4" s="2">
-        <v>1876178371346.02</v>
+        <v>510636250523</v>
       </c>
       <c r="AE4" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.14289314820754284</v>
+        <v>0.15408926462979911</v>
       </c>
       <c r="AF4" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>7.6922177045149587E-2</v>
+        <v>9.394894704998169E-2</v>
       </c>
       <c r="AG4" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>7.6006474456534967E-2</v>
+        <v>7.6005766056253421E-2</v>
       </c>
       <c r="AH4" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>7.0464685168603047E-2</v>
+        <v>0.14248153433932664</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -1997,104 +1997,104 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>20699762.290343799</v>
+        <v>20995193</v>
       </c>
       <c r="D5" s="2">
-        <v>22020974.811699402</v>
+        <v>22346792</v>
       </c>
       <c r="E5" s="2">
-        <v>23327558.907410599</v>
+        <v>23685932</v>
       </c>
       <c r="F5" s="2">
-        <v>24558260.5174153</v>
+        <v>24949323</v>
       </c>
       <c r="G5" s="2">
-        <v>25655147.0584337</v>
+        <v>26078152</v>
       </c>
       <c r="H5" s="2">
-        <v>26586318.863892201</v>
+        <v>27039264</v>
       </c>
       <c r="I5" s="2">
-        <v>27294385.564474002</v>
+        <v>27773182</v>
       </c>
       <c r="J5" s="2">
-        <v>21358549.010575</v>
+        <v>21871452</v>
       </c>
       <c r="K5" s="2">
-        <v>22590117.182911702</v>
+        <v>23166392</v>
       </c>
       <c r="L5" s="2">
-        <v>23756214.673787098</v>
+        <v>24392873</v>
       </c>
       <c r="M5" s="2">
-        <v>24815934.487051699</v>
+        <v>25508689</v>
       </c>
       <c r="N5" s="2">
-        <v>25713177.9883653</v>
+        <v>26456216</v>
       </c>
       <c r="O5" s="2">
-        <v>26424125.875515498</v>
+        <v>27210842</v>
       </c>
       <c r="P5" s="2">
-        <v>26859569.444464698</v>
+        <v>27681867</v>
       </c>
       <c r="Q5" s="2">
-        <v>90129427.2531562</v>
+        <v>90129439</v>
       </c>
       <c r="R5" s="2">
-        <v>95987672.8432419</v>
+        <v>95987682</v>
       </c>
       <c r="S5" s="2">
-        <v>101580707.85191301</v>
+        <v>101580697</v>
       </c>
       <c r="T5" s="2">
-        <v>106723850.213211</v>
+        <v>106723816</v>
       </c>
       <c r="U5" s="2">
-        <v>111146572.310643</v>
+        <v>111146571</v>
       </c>
       <c r="V5" s="2">
-        <v>114733375.97423001</v>
+        <v>114733364</v>
       </c>
       <c r="W5" s="2">
-        <v>117123456.706213</v>
+        <v>117123486</v>
       </c>
       <c r="X5" s="2">
-        <v>1595784155048.74</v>
+        <v>468036129309</v>
       </c>
       <c r="Y5" s="2">
-        <v>1661494994382.26</v>
+        <v>492424513344</v>
       </c>
       <c r="Z5" s="2">
-        <v>1725601121361.03</v>
+        <v>516692869994</v>
       </c>
       <c r="AA5" s="2">
-        <v>1784374774467.5701</v>
+        <v>539424633109</v>
       </c>
       <c r="AB5" s="2">
-        <v>1834730178683.01</v>
+        <v>559477020499</v>
       </c>
       <c r="AC5" s="2">
-        <v>1875207104328.3301</v>
+        <v>576219001637</v>
       </c>
       <c r="AD5" s="2">
-        <v>1903606903365.8301</v>
+        <v>588720287304</v>
       </c>
       <c r="AE5" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.31858449298263292</v>
+        <v>0.32283527948516588</v>
       </c>
       <c r="AF5" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.25755590565473541</v>
+        <v>0.2656620602966826</v>
       </c>
       <c r="AG5" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.2995029512085523</v>
+        <v>0.29950310685945802</v>
       </c>
       <c r="AH5" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>0.19289748387537298</v>
+        <v>0.25785222643639893</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2105,104 +2105,104 @@
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <v>38556252.117168598</v>
+        <v>39689290</v>
       </c>
       <c r="D6" s="5">
-        <v>41074842.380087703</v>
+        <v>42298189</v>
       </c>
       <c r="E6" s="5">
-        <v>43622820.223898202</v>
+        <v>44937726</v>
       </c>
       <c r="F6" s="5">
-        <v>46077200.928069897</v>
+        <v>47480231</v>
       </c>
       <c r="G6" s="5">
-        <v>48350507.555821203</v>
+        <v>49833783</v>
       </c>
       <c r="H6" s="5">
-        <v>50397030.886660703</v>
+        <v>51950445</v>
       </c>
       <c r="I6" s="5">
-        <v>51852090.551724903</v>
+        <v>53451458</v>
       </c>
       <c r="J6" s="5">
-        <v>39866900.536976703</v>
+        <v>41439893</v>
       </c>
       <c r="K6" s="5">
-        <v>42456095.719283998</v>
+        <v>44159588</v>
       </c>
       <c r="L6" s="5">
-        <v>45075799.985284202</v>
+        <v>46910731</v>
       </c>
       <c r="M6" s="5">
-        <v>47597656.786726102</v>
+        <v>49559871</v>
       </c>
       <c r="N6" s="5">
-        <v>49929318.458606303</v>
+        <v>52011517</v>
       </c>
       <c r="O6" s="5">
-        <v>52024367.949653201</v>
+        <v>54215360</v>
       </c>
       <c r="P6" s="5">
-        <v>53502516.2639082</v>
+        <v>55776229</v>
       </c>
       <c r="Q6" s="5">
-        <v>207896193.427773</v>
+        <v>207896204</v>
       </c>
       <c r="R6" s="5">
-        <v>222385965.413533</v>
+        <v>222385925</v>
       </c>
       <c r="S6" s="5">
-        <v>237062657.956</v>
+        <v>237062635</v>
       </c>
       <c r="T6" s="5">
-        <v>251229665.09464499</v>
+        <v>251229647</v>
       </c>
       <c r="U6" s="5">
-        <v>264415418.45811501</v>
+        <v>264415393</v>
       </c>
       <c r="V6" s="5">
-        <v>276323699.42967403</v>
+        <v>276323679</v>
       </c>
       <c r="W6" s="5">
-        <v>285068331.11525297</v>
+        <v>285068336</v>
       </c>
       <c r="X6" s="5">
-        <v>2323706714599.0498</v>
+        <v>811117747964</v>
       </c>
       <c r="Y6" s="5">
-        <v>2441645721144.1299</v>
+        <v>858284808937</v>
       </c>
       <c r="Z6" s="5">
-        <v>2558806507950.3701</v>
+        <v>905677176952</v>
       </c>
       <c r="AA6" s="5">
-        <v>2669252444241.3799</v>
+        <v>950790655068</v>
       </c>
       <c r="AB6" s="5">
-        <v>2770956870275.0098</v>
+        <v>992386036640</v>
       </c>
       <c r="AC6" s="5">
-        <v>2860974389814.0098</v>
+        <v>1029098638817</v>
       </c>
       <c r="AD6" s="5">
-        <v>2919962413916.2798</v>
+        <v>1052968499486</v>
       </c>
       <c r="AE6" s="6">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.3448426054003273</v>
+        <v>0.34674764905091515</v>
       </c>
       <c r="AF6" s="6">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.34202848837682809</v>
+        <v>0.34595494732575682</v>
       </c>
       <c r="AG6" s="6">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.37120515010435251</v>
+        <v>0.37120510387000616</v>
       </c>
       <c r="AH6" s="6">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>0.25659679664871682</v>
+        <v>0.29816971966039896</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -2213,104 +2213,104 @@
         <v>2</v>
       </c>
       <c r="C7" s="2">
-        <v>13155621.459724501</v>
+        <v>13354138</v>
       </c>
       <c r="D7" s="2">
-        <v>16039488.5582761</v>
+        <v>16259506</v>
       </c>
       <c r="E7" s="2">
-        <v>19394877.629434299</v>
+        <v>19635169</v>
       </c>
       <c r="F7" s="2">
-        <v>23172887.712468401</v>
+        <v>23430378</v>
       </c>
       <c r="G7" s="2">
-        <v>27541173.679412</v>
+        <v>27812630</v>
       </c>
       <c r="H7" s="2">
-        <v>32244332.0551847</v>
+        <v>32523176</v>
       </c>
       <c r="I7" s="2">
-        <v>37276416.294133604</v>
+        <v>37555271</v>
       </c>
       <c r="J7" s="2">
-        <v>14028806.840659</v>
+        <v>14384034</v>
       </c>
       <c r="K7" s="2">
-        <v>17098325.9018897</v>
+        <v>17507803</v>
       </c>
       <c r="L7" s="2">
-        <v>20668200.480793301</v>
+        <v>21135483</v>
       </c>
       <c r="M7" s="2">
-        <v>24686419.085600302</v>
+        <v>25212432</v>
       </c>
       <c r="N7" s="2">
-        <v>29330097.542468701</v>
+        <v>29917412</v>
       </c>
       <c r="O7" s="2">
-        <v>34329129.592157602</v>
+        <v>34974317</v>
       </c>
       <c r="P7" s="2">
-        <v>39676986.754808202</v>
+        <v>40375885</v>
       </c>
       <c r="Q7" s="2">
-        <v>70481688.161565393</v>
+        <v>70481698</v>
       </c>
       <c r="R7" s="2">
-        <v>86027551.722373396</v>
+        <v>86027498</v>
       </c>
       <c r="S7" s="2">
-        <v>104149281.99895699</v>
+        <v>104149299</v>
       </c>
       <c r="T7" s="2">
-        <v>124570389.843651</v>
+        <v>124570351</v>
       </c>
       <c r="U7" s="2">
-        <v>148224156.786807</v>
+        <v>148224147</v>
       </c>
       <c r="V7" s="2">
-        <v>173675881.27756599</v>
+        <v>173675877</v>
       </c>
       <c r="W7" s="2">
-        <v>200871759.41085699</v>
+        <v>200871768</v>
       </c>
       <c r="X7" s="2">
-        <v>831649645306.62402</v>
+        <v>256238628627</v>
       </c>
       <c r="Y7" s="2">
-        <v>1021100118502.09</v>
+        <v>310263612756</v>
       </c>
       <c r="Z7" s="2">
-        <v>1241341064268.5</v>
+        <v>372428373152</v>
       </c>
       <c r="AA7" s="2">
-        <v>1490738637165.8601</v>
+        <v>441895184162</v>
       </c>
       <c r="AB7" s="2">
-        <v>1778821018353.5701</v>
+        <v>521368368798</v>
       </c>
       <c r="AC7" s="2">
-        <v>2092184369930.3501</v>
+        <v>606617777913</v>
       </c>
       <c r="AD7" s="2">
-        <v>2430548798619.0298</v>
+        <v>697450869649</v>
       </c>
       <c r="AE7" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>1.8334971790009402</v>
+        <v>1.812257219447635</v>
       </c>
       <c r="AF7" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>1.82825098424011</v>
+        <v>1.8069931564399808</v>
       </c>
       <c r="AG7" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>1.8499850762711305</v>
+        <v>1.8499848003094366</v>
       </c>
       <c r="AH7" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>1.9225633803077034</v>
+        <v>1.72188027771668</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -2321,104 +2321,104 @@
         <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>25839425.841553301</v>
+        <v>26167099</v>
       </c>
       <c r="D8" s="2">
-        <v>32148438.836791199</v>
+        <v>32505556</v>
       </c>
       <c r="E8" s="2">
-        <v>39568344.8691146</v>
+        <v>39944236</v>
       </c>
       <c r="F8" s="2">
-        <v>48200040.0020274</v>
+        <v>48578757</v>
       </c>
       <c r="G8" s="2">
-        <v>57983359.243055001</v>
+        <v>58346837</v>
       </c>
       <c r="H8" s="2">
-        <v>68889684.243322894</v>
+        <v>69213164</v>
       </c>
       <c r="I8" s="2">
-        <v>80632855.999345198</v>
+        <v>80886257</v>
       </c>
       <c r="J8" s="2">
-        <v>27379337.0925439</v>
+        <v>27943613</v>
       </c>
       <c r="K8" s="2">
-        <v>34061536.431472301</v>
+        <v>34712195</v>
       </c>
       <c r="L8" s="2">
-        <v>41921079.506097101</v>
+        <v>42657444</v>
       </c>
       <c r="M8" s="2">
-        <v>51066457.113406204</v>
+        <v>51883555</v>
       </c>
       <c r="N8" s="2">
-        <v>61430837.067844503</v>
+        <v>62320824</v>
       </c>
       <c r="O8" s="2">
-        <v>72976667.552153096</v>
+        <v>73924600</v>
       </c>
       <c r="P8" s="2">
-        <v>85408988.540433601</v>
+        <v>86392062</v>
       </c>
       <c r="Q8" s="2">
-        <v>113275628.08179</v>
+        <v>113275625</v>
       </c>
       <c r="R8" s="2">
-        <v>140444178.140037</v>
+        <v>140444194</v>
       </c>
       <c r="S8" s="2">
-        <v>172403493.368132</v>
+        <v>172403481</v>
       </c>
       <c r="T8" s="2">
-        <v>209627483.878382</v>
+        <v>209627470</v>
       </c>
       <c r="U8" s="2">
-        <v>251743038.66803899</v>
+        <v>251743092</v>
       </c>
       <c r="V8" s="2">
-        <v>298579408.73545098</v>
+        <v>298579426</v>
       </c>
       <c r="W8" s="2">
-        <v>348994026.72251898</v>
+        <v>348994049</v>
       </c>
       <c r="X8" s="2">
-        <v>1596623955996.49</v>
+        <v>523178835259</v>
       </c>
       <c r="Y8" s="2">
-        <v>2022804224310.6599</v>
+        <v>649966945851</v>
       </c>
       <c r="Z8" s="2">
-        <v>2536191862989.5</v>
+        <v>798980022685</v>
       </c>
       <c r="AA8" s="2">
-        <v>3148848439399.9502</v>
+        <v>972484876923</v>
       </c>
       <c r="AB8" s="2">
-        <v>3856839105366.98</v>
+        <v>1168738065389</v>
       </c>
       <c r="AC8" s="2">
-        <v>4659733812930.1396</v>
+        <v>1385822453917</v>
       </c>
       <c r="AD8" s="2">
-        <v>5544772786583.5703</v>
+        <v>1619340673372</v>
       </c>
       <c r="AE8" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>2.120535900982623</v>
+        <v>2.0911434622538785</v>
       </c>
       <c r="AF8" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>2.1194688261350443</v>
+        <v>2.0916568304893142</v>
       </c>
       <c r="AG8" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>2.0809277567680304</v>
+        <v>2.0809280372542638</v>
       </c>
       <c r="AH8" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>2.4728107177390743</v>
+        <v>2.0951953027120149</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -2429,104 +2429,104 @@
         <v>4</v>
       </c>
       <c r="C9" s="2">
-        <v>24021015.757693101</v>
+        <v>24570933</v>
       </c>
       <c r="D9" s="2">
-        <v>26669545.035145801</v>
+        <v>27250874</v>
       </c>
       <c r="E9" s="2">
-        <v>29420669.408119801</v>
+        <v>30011571</v>
       </c>
       <c r="F9" s="2">
-        <v>32302844.5022012</v>
+        <v>32881492</v>
       </c>
       <c r="G9" s="2">
-        <v>35621489.741127498</v>
+        <v>36161795</v>
       </c>
       <c r="H9" s="2">
-        <v>39244728.948088102</v>
+        <v>39711929</v>
       </c>
       <c r="I9" s="2">
-        <v>42987234.550792202</v>
+        <v>43353992</v>
       </c>
       <c r="J9" s="2">
-        <v>27378055.172982998</v>
+        <v>28531379</v>
       </c>
       <c r="K9" s="2">
-        <v>30387689.5087259</v>
+        <v>31638651</v>
       </c>
       <c r="L9" s="2">
-        <v>33509989.718568299</v>
+        <v>34839959</v>
       </c>
       <c r="M9" s="2">
-        <v>36777504.8060764</v>
+        <v>38170069</v>
       </c>
       <c r="N9" s="2">
-        <v>40537471.245108597</v>
+        <v>41979857</v>
       </c>
       <c r="O9" s="2">
-        <v>44638247.546660803</v>
+        <v>46105199</v>
       </c>
       <c r="P9" s="2">
-        <v>48870360.636635303</v>
+        <v>50338751</v>
       </c>
       <c r="Q9" s="2">
-        <v>115562103.341176</v>
+        <v>115562137</v>
       </c>
       <c r="R9" s="2">
-        <v>128178940.132596</v>
+        <v>128178874</v>
       </c>
       <c r="S9" s="2">
-        <v>140966606.72564799</v>
+        <v>140966587</v>
       </c>
       <c r="T9" s="2">
-        <v>154047919.84221399</v>
+        <v>154047937</v>
       </c>
       <c r="U9" s="2">
-        <v>168822475.66228199</v>
+        <v>168822491</v>
       </c>
       <c r="V9" s="2">
-        <v>184728059.33868301</v>
+        <v>184727973</v>
       </c>
       <c r="W9" s="2">
-        <v>200958698.33427799</v>
+        <v>200958702</v>
       </c>
       <c r="X9" s="2">
-        <v>3347569074131.75</v>
+        <v>984085195624</v>
       </c>
       <c r="Y9" s="2">
-        <v>3741225771175.3101</v>
+        <v>1089951707260</v>
       </c>
       <c r="Z9" s="2">
-        <v>4164370335555.6602</v>
+        <v>1197021463990</v>
       </c>
       <c r="AA9" s="2">
-        <v>4622268519237.2002</v>
+        <v>1306183854193</v>
       </c>
       <c r="AB9" s="2">
-        <v>5167967569548.0498</v>
+        <v>1429493490538</v>
       </c>
       <c r="AC9" s="2">
-        <v>5789234516922.1504</v>
+        <v>1562062666970</v>
       </c>
       <c r="AD9" s="2">
-        <v>6449901594499.6299</v>
+        <v>1697189682037</v>
       </c>
       <c r="AE9" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.78956772621178084</v>
+        <v>0.76444223750070872</v>
       </c>
       <c r="AF9" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.78501943720462575</v>
+        <v>0.76432940728171594</v>
       </c>
       <c r="AG9" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.73896712264732778</v>
+        <v>0.73896664787360233</v>
       </c>
       <c r="AH9" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>0.92674189887254932</v>
+        <v>0.72463694158189895</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -2537,104 +2537,104 @@
         <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>24339568.217078101</v>
+        <v>24586160</v>
       </c>
       <c r="D10" s="2">
-        <v>28041829.800872501</v>
+        <v>28281530</v>
       </c>
       <c r="E10" s="2">
-        <v>32145986.966980301</v>
+        <v>32373869</v>
       </c>
       <c r="F10" s="2">
-        <v>36670475.282174602</v>
+        <v>36880757</v>
       </c>
       <c r="G10" s="2">
-        <v>41592586.838313699</v>
+        <v>41779864</v>
       </c>
       <c r="H10" s="2">
-        <v>46819952.265872702</v>
+        <v>46977830</v>
       </c>
       <c r="I10" s="2">
-        <v>52392989.989006601</v>
+        <v>52511025</v>
       </c>
       <c r="J10" s="2">
-        <v>26801542.7277488</v>
+        <v>27450117</v>
       </c>
       <c r="K10" s="2">
-        <v>30838446.016635701</v>
+        <v>31538181</v>
       </c>
       <c r="L10" s="2">
-        <v>35303303.347967498</v>
+        <v>36053708</v>
       </c>
       <c r="M10" s="2">
-        <v>40213003.216605298</v>
+        <v>41012946</v>
       </c>
       <c r="N10" s="2">
-        <v>45546446.365058497</v>
+        <v>46394561</v>
       </c>
       <c r="O10" s="2">
-        <v>51199768.9142095</v>
+        <v>52092800</v>
       </c>
       <c r="P10" s="2">
-        <v>57219585.856143899</v>
+        <v>58151121</v>
       </c>
       <c r="Q10" s="2">
-        <v>93620327.473406196</v>
+        <v>93620343</v>
       </c>
       <c r="R10" s="2">
-        <v>108911886.945833</v>
+        <v>108911882</v>
       </c>
       <c r="S10" s="2">
-        <v>126082825.65269201</v>
+        <v>126082841</v>
       </c>
       <c r="T10" s="2">
-        <v>145307808.36625999</v>
+        <v>145307792</v>
       </c>
       <c r="U10" s="2">
-        <v>166369279.99473301</v>
+        <v>166369300</v>
       </c>
       <c r="V10" s="2">
-        <v>189013005.09862</v>
+        <v>189013004</v>
       </c>
       <c r="W10" s="2">
-        <v>213320720.82108501</v>
+        <v>213320729</v>
       </c>
       <c r="X10" s="2">
-        <v>3280836224411.3198</v>
+        <v>947979944669</v>
       </c>
       <c r="Y10" s="2">
-        <v>3759154825437.2402</v>
+        <v>1071376735775</v>
       </c>
       <c r="Z10" s="2">
-        <v>4274085840126.9502</v>
+        <v>1203632317139</v>
       </c>
       <c r="AA10" s="2">
-        <v>4820192271344.2002</v>
+        <v>1343599654463</v>
       </c>
       <c r="AB10" s="2">
-        <v>5402143617440.25</v>
+        <v>1492536728587</v>
       </c>
       <c r="AC10" s="2">
-        <v>6001310557084.5801</v>
+        <v>1645506621100</v>
       </c>
       <c r="AD10" s="2">
-        <v>6632748121071.8799</v>
+        <v>1804934959151</v>
       </c>
       <c r="AE10" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>1.1525850221223126</v>
+        <v>1.1357961145620137</v>
       </c>
       <c r="AF10" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>1.1349362772651883</v>
+        <v>1.1184288941282108</v>
       </c>
       <c r="AG10" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>1.2785726837121021</v>
+        <v>1.2785723931816828</v>
       </c>
       <c r="AH10" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>1.0216638891391154</v>
+        <v>0.90398010981257348</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2645,104 +2645,104 @@
         <v>6</v>
       </c>
       <c r="C11" s="5">
-        <v>39094824.6974084</v>
+        <v>40099188</v>
       </c>
       <c r="D11" s="5">
-        <v>47221370.8600704</v>
+        <v>48403387</v>
       </c>
       <c r="E11" s="5">
-        <v>56415063.590386301</v>
+        <v>57793103</v>
       </c>
       <c r="F11" s="5">
-        <v>66549352.136782601</v>
+        <v>68136797</v>
       </c>
       <c r="G11" s="5">
-        <v>77681119.464588106</v>
+        <v>79491954</v>
       </c>
       <c r="H11" s="5">
-        <v>89772730.665355697</v>
+        <v>91819781</v>
       </c>
       <c r="I11" s="5">
-        <v>102708334.291721</v>
+        <v>104997930</v>
       </c>
       <c r="J11" s="5">
-        <v>41479940.573013797</v>
+        <v>42956957</v>
       </c>
       <c r="K11" s="5">
-        <v>50098046.552024998</v>
+        <v>51848336</v>
       </c>
       <c r="L11" s="5">
-        <v>59846489.806571499</v>
+        <v>61900150</v>
       </c>
       <c r="M11" s="5">
-        <v>70591438.1484202</v>
+        <v>72972659</v>
       </c>
       <c r="N11" s="5">
-        <v>82393681.544282004</v>
+        <v>85127333</v>
       </c>
       <c r="O11" s="5">
-        <v>95212480.117013693</v>
+        <v>98321836</v>
       </c>
       <c r="P11" s="5">
-        <v>108924983.19368701</v>
+        <v>112425432</v>
       </c>
       <c r="Q11" s="5">
-        <v>188824270.20015499</v>
+        <v>188824315</v>
       </c>
       <c r="R11" s="5">
-        <v>228308150.33492601</v>
+        <v>228308103</v>
       </c>
       <c r="S11" s="5">
-        <v>273159560.84754598</v>
+        <v>273159629</v>
       </c>
       <c r="T11" s="5">
-        <v>322805116.73895901</v>
+        <v>322805104</v>
       </c>
       <c r="U11" s="5">
-        <v>377635860.49473602</v>
+        <v>377635831</v>
       </c>
       <c r="V11" s="5">
-        <v>437349554.074256</v>
+        <v>437349551</v>
       </c>
       <c r="W11" s="5">
-        <v>501441786.09656501</v>
+        <v>501441819</v>
       </c>
       <c r="X11" s="5">
-        <v>3090542531808.1699</v>
+        <v>1091293981203</v>
       </c>
       <c r="Y11" s="5">
-        <v>3747945106793.0898</v>
+        <v>1314410021249</v>
       </c>
       <c r="Z11" s="5">
-        <v>4488059248877.6504</v>
+        <v>1564767974767</v>
       </c>
       <c r="AA11" s="5">
-        <v>5303773485897.5098</v>
+        <v>1838871084384</v>
       </c>
       <c r="AB11" s="5">
-        <v>6199553532217.3701</v>
+        <v>2138333057643</v>
       </c>
       <c r="AC11" s="5">
-        <v>7169675588570.5498</v>
+        <v>2461684413423</v>
       </c>
       <c r="AD11" s="5">
-        <v>8209879047644.1904</v>
+        <v>2805712877786</v>
       </c>
       <c r="AE11" s="6">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>1.627159351312542</v>
+        <v>1.6184552664757201</v>
       </c>
       <c r="AF11" s="6">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>1.625967677122274</v>
+        <v>1.6171647121093797</v>
       </c>
       <c r="AG11" s="6">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>1.6556002867906408</v>
+        <v>1.65559983098575</v>
       </c>
       <c r="AH11" s="6">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>1.6564523746712112</v>
+        <v>1.5709963823800175</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -2753,104 +2753,104 @@
         <v>2</v>
       </c>
       <c r="C12" s="2">
-        <v>30269845.5164745</v>
+        <v>30706940</v>
       </c>
       <c r="D12" s="2">
-        <v>34797683.303629696</v>
+        <v>35295192</v>
       </c>
       <c r="E12" s="2">
-        <v>39734971.184266403</v>
+        <v>40292135</v>
       </c>
       <c r="F12" s="2">
-        <v>44944889.519741505</v>
+        <v>45555829</v>
       </c>
       <c r="G12" s="2">
-        <v>50653135.253146395</v>
+        <v>51314363</v>
       </c>
       <c r="H12" s="2">
-        <v>56403312.883231498</v>
+        <v>57103134</v>
       </c>
       <c r="I12" s="2">
-        <v>62214277.373842806</v>
+        <v>62933352</v>
       </c>
       <c r="J12" s="2">
-        <v>31802197.0022697</v>
+        <v>32539981</v>
       </c>
       <c r="K12" s="2">
-        <v>36573977.7733832</v>
+        <v>37419635</v>
       </c>
       <c r="L12" s="2">
-        <v>41782219.371329099</v>
+        <v>42739804</v>
       </c>
       <c r="M12" s="2">
-        <v>47282195.752170101</v>
+        <v>48350638</v>
       </c>
       <c r="N12" s="2">
-        <v>53314071.077888504</v>
+        <v>54495094</v>
       </c>
       <c r="O12" s="2">
-        <v>59394914.165385798</v>
+        <v>60678701</v>
       </c>
       <c r="P12" s="2">
-        <v>65538164.163001403</v>
+        <v>66913379</v>
       </c>
       <c r="Q12" s="2">
-        <v>158456060.12207031</v>
+        <v>158456055</v>
       </c>
       <c r="R12" s="2">
-        <v>182579991.01589948</v>
+        <v>182579929</v>
       </c>
       <c r="S12" s="2">
-        <v>208955900.73388299</v>
+        <v>208955918</v>
       </c>
       <c r="T12" s="2">
-        <v>236853665.21608198</v>
+        <v>236853638</v>
       </c>
       <c r="U12" s="2">
-        <v>267511587.56687</v>
+        <v>267511591</v>
       </c>
       <c r="V12" s="2">
-        <v>298471675.59965098</v>
+        <v>298471701</v>
       </c>
       <c r="W12" s="2">
-        <v>329751557.90478301</v>
+        <v>329751559</v>
       </c>
       <c r="X12" s="2">
-        <v>1578057647750.7832</v>
+        <v>492070134949</v>
       </c>
       <c r="Y12" s="2">
-        <v>1826061640537.1909</v>
+        <v>568216327213</v>
       </c>
       <c r="Z12" s="2">
-        <v>2101676325209.396</v>
+        <v>651683250767</v>
       </c>
       <c r="AA12" s="2">
-        <v>2399953444320.0229</v>
+        <v>740306500412</v>
       </c>
       <c r="AB12" s="2">
-        <v>2732499432561.7939</v>
+        <v>837700041143</v>
       </c>
       <c r="AC12" s="2">
-        <v>3078659436689.7891</v>
+        <v>936889140024</v>
       </c>
       <c r="AD12" s="2">
-        <v>3442241123985.8496</v>
+        <v>1037874521586</v>
       </c>
       <c r="AE12" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>1.0553219321843716</v>
+        <v>1.0494830158915214</v>
       </c>
       <c r="AF12" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>1.0608061813567153</v>
+        <v>1.056343517840407</v>
       </c>
       <c r="AG12" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>1.0810283787868462</v>
+        <v>1.0810284529676069</v>
       </c>
       <c r="AH12" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>1.1813151939614501</v>
+        <v>1.109200392122089</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -2861,104 +2861,104 @@
         <v>3</v>
       </c>
       <c r="C13" s="2">
-        <v>84318046.509167492</v>
+        <v>85587206</v>
       </c>
       <c r="D13" s="2">
-        <v>95804028.494763002</v>
+        <v>97229560</v>
       </c>
       <c r="E13" s="2">
-        <v>107963341.87709871</v>
+        <v>109533400</v>
       </c>
       <c r="F13" s="2">
-        <v>120778580.9929384</v>
+        <v>122475270</v>
       </c>
       <c r="G13" s="2">
-        <v>134171447.9186984</v>
+        <v>135969896</v>
       </c>
       <c r="H13" s="2">
-        <v>148013603.65866339</v>
+        <v>149876149</v>
       </c>
       <c r="I13" s="2">
-        <v>161504532.68657368</v>
+        <v>163376473</v>
       </c>
       <c r="J13" s="2">
-        <v>87443578.034584403</v>
+        <v>89465116</v>
       </c>
       <c r="K13" s="2">
-        <v>99442410.240436703</v>
+        <v>101723154</v>
       </c>
       <c r="L13" s="2">
-        <v>112167094.46939501</v>
+        <v>114701843</v>
       </c>
       <c r="M13" s="2">
-        <v>125605188.0946134</v>
+        <v>128382221</v>
       </c>
       <c r="N13" s="2">
-        <v>139669574.8561188</v>
+        <v>142670884</v>
       </c>
       <c r="O13" s="2">
-        <v>154212766.76040721</v>
+        <v>157410541</v>
       </c>
       <c r="P13" s="2">
-        <v>168420132.52434349</v>
+        <v>171760481</v>
       </c>
       <c r="Q13" s="2">
-        <v>391717753.29113698</v>
+        <v>391717736</v>
       </c>
       <c r="R13" s="2">
-        <v>443906563.46711099</v>
+        <v>443906596</v>
       </c>
       <c r="S13" s="2">
-        <v>498809816.16606599</v>
+        <v>498809797</v>
       </c>
       <c r="T13" s="2">
-        <v>556353721.55619705</v>
+        <v>556353734</v>
       </c>
       <c r="U13" s="2">
-        <v>616125302.34946203</v>
+        <v>616125297</v>
       </c>
       <c r="V13" s="2">
-        <v>677381073.12930894</v>
+        <v>677381080</v>
       </c>
       <c r="W13" s="2">
-        <v>736614537.35365295</v>
+        <v>736614480</v>
       </c>
       <c r="X13" s="2">
-        <v>4312811701121.3096</v>
+        <v>1401576605297</v>
       </c>
       <c r="Y13" s="2">
-        <v>4951736217861.3496</v>
+        <v>1606234853045</v>
       </c>
       <c r="Z13" s="2">
-        <v>5656054673554.2695</v>
+        <v>1827173019563</v>
       </c>
       <c r="AA13" s="2">
-        <v>6430512818804.3301</v>
+        <v>2064583990908</v>
       </c>
       <c r="AB13" s="2">
-        <v>7275205192577.1299</v>
+        <v>2316658837860</v>
       </c>
       <c r="AC13" s="2">
-        <v>8182531082863.25</v>
+        <v>2578835633425</v>
       </c>
       <c r="AD13" s="2">
-        <v>9122757873373.041</v>
+        <v>2840134901280</v>
       </c>
       <c r="AE13" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.9154207120893636</v>
+        <v>0.90888896408185116</v>
       </c>
       <c r="AF13" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.92604347065638626</v>
+        <v>0.91985981441079234</v>
       </c>
       <c r="AG13" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.88047269025914643</v>
+        <v>0.88047262685088112</v>
       </c>
       <c r="AH13" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>1.115269227033763</v>
+        <v>1.0263857790906572</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2969,104 +2969,104 @@
         <v>4</v>
       </c>
       <c r="C14" s="2">
-        <v>44798794.984979898</v>
+        <v>45940741</v>
       </c>
       <c r="D14" s="2">
-        <v>48691441.127311401</v>
+        <v>49914001</v>
       </c>
       <c r="E14" s="2">
-        <v>52261944.988607407</v>
+        <v>53549409</v>
       </c>
       <c r="F14" s="2">
-        <v>55694605.1640613</v>
+        <v>57032511</v>
       </c>
       <c r="G14" s="2">
-        <v>59381654.684064001</v>
+        <v>60754138</v>
       </c>
       <c r="H14" s="2">
-        <v>63047585.463105403</v>
+        <v>64420843</v>
       </c>
       <c r="I14" s="2">
-        <v>66734016.064627305</v>
+        <v>68016658</v>
       </c>
       <c r="J14" s="2">
-        <v>49064322.879070893</v>
+        <v>51224289</v>
       </c>
       <c r="K14" s="2">
-        <v>53228059.201011002</v>
+        <v>55573152</v>
       </c>
       <c r="L14" s="2">
-        <v>57015737.503027201</v>
+        <v>59520277</v>
       </c>
       <c r="M14" s="2">
-        <v>60629850.5987316</v>
+        <v>63275272</v>
       </c>
       <c r="N14" s="2">
-        <v>64524288.242781095</v>
+        <v>67301869</v>
       </c>
       <c r="O14" s="2">
-        <v>68391816.2140183</v>
+        <v>71267373</v>
       </c>
       <c r="P14" s="2">
-        <v>72224783.266659409</v>
+        <v>75163636</v>
       </c>
       <c r="Q14" s="2">
-        <v>205853226.69433481</v>
+        <v>205853313</v>
       </c>
       <c r="R14" s="2">
-        <v>222977252.1910027</v>
+        <v>222977214</v>
       </c>
       <c r="S14" s="2">
-        <v>238382470.67268068</v>
+        <v>238382461</v>
       </c>
       <c r="T14" s="2">
-        <v>252870602.49826118</v>
+        <v>252870637</v>
       </c>
       <c r="U14" s="2">
-        <v>268260091.88324609</v>
+        <v>268260124</v>
       </c>
       <c r="V14" s="2">
-        <v>283360657.86358964</v>
+        <v>283360573</v>
       </c>
       <c r="W14" s="2">
-        <v>298112531.64823049</v>
+        <v>298112528</v>
       </c>
       <c r="X14" s="2">
-        <v>5100245642859.9502</v>
+        <v>1431038809468</v>
       </c>
       <c r="Y14" s="2">
-        <v>5592860932722.9297</v>
+        <v>1562000083511</v>
       </c>
       <c r="Z14" s="2">
-        <v>6068723109757.9102</v>
+        <v>1686022752987</v>
       </c>
       <c r="AA14" s="2">
-        <v>6548097055764.1406</v>
+        <v>1807049842400</v>
       </c>
       <c r="AB14" s="2">
-        <v>7091271835204.7598</v>
+        <v>1938865636182</v>
       </c>
       <c r="AC14" s="2">
-        <v>7676648531249</v>
+        <v>2073636132486</v>
       </c>
       <c r="AD14" s="2">
-        <v>8326079965845.6504</v>
+        <v>2207825932560</v>
       </c>
       <c r="AE14" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.4896386406599067</v>
+        <v>0.48053027703667217</v>
       </c>
       <c r="AF14" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.47204280072655291</v>
+        <v>0.4673436658144734</v>
       </c>
       <c r="AG14" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.44818002824356373</v>
+        <v>0.44817940335990603</v>
       </c>
       <c r="AH14" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>0.63248607005854351</v>
+        <v>0.54281345687667049</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -3077,104 +3077,104 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>45039330.507421896</v>
+        <v>45581353</v>
       </c>
       <c r="D15" s="2">
-        <v>50062804.612571903</v>
+        <v>50628322</v>
       </c>
       <c r="E15" s="2">
-        <v>55473545.8743909</v>
+        <v>56059801</v>
       </c>
       <c r="F15" s="2">
-        <v>61228735.799589902</v>
+        <v>61830080</v>
       </c>
       <c r="G15" s="2">
-        <v>67247733.896747395</v>
+        <v>67858016</v>
       </c>
       <c r="H15" s="2">
-        <v>73406271.1297649</v>
+        <v>74017094</v>
       </c>
       <c r="I15" s="2">
-        <v>79687375.553480595</v>
+        <v>80284207</v>
       </c>
       <c r="J15" s="2">
-        <v>48160091.7383238</v>
+        <v>49321569</v>
       </c>
       <c r="K15" s="2">
-        <v>53428563.199547403</v>
+        <v>54704573</v>
       </c>
       <c r="L15" s="2">
-        <v>59059518.021754593</v>
+        <v>60446581</v>
       </c>
       <c r="M15" s="2">
-        <v>65028937.703657001</v>
+        <v>66521635</v>
       </c>
       <c r="N15" s="2">
-        <v>71259624.353423804</v>
+        <v>72850777</v>
       </c>
       <c r="O15" s="2">
-        <v>77623894.789725006</v>
+        <v>79303642</v>
       </c>
       <c r="P15" s="2">
-        <v>84079155.300608605</v>
+        <v>85832988</v>
       </c>
       <c r="Q15" s="2">
-        <v>183749754.72656238</v>
+        <v>183749782</v>
       </c>
       <c r="R15" s="2">
-        <v>204899559.7890749</v>
+        <v>204899564</v>
       </c>
       <c r="S15" s="2">
-        <v>227663533.504605</v>
+        <v>227663538</v>
       </c>
       <c r="T15" s="2">
-        <v>252031658.57947099</v>
+        <v>252031608</v>
       </c>
       <c r="U15" s="2">
-        <v>277515852.30537599</v>
+        <v>277515871</v>
       </c>
       <c r="V15" s="2">
-        <v>303746381.07284999</v>
+        <v>303746368</v>
       </c>
       <c r="W15" s="2">
-        <v>330444177.52729797</v>
+        <v>330444215</v>
       </c>
       <c r="X15" s="2">
-        <v>4876620379460.0596</v>
+        <v>1416016073978</v>
       </c>
       <c r="Y15" s="2">
-        <v>5420649819819.5</v>
+        <v>1563801249119</v>
       </c>
       <c r="Z15" s="2">
-        <v>5999686961487.9805</v>
+        <v>1720325187133</v>
       </c>
       <c r="AA15" s="2">
-        <v>6604567045811.7705</v>
+        <v>1883024287572</v>
       </c>
       <c r="AB15" s="2">
-        <v>7236873796123.2598</v>
+        <v>2052013749086</v>
       </c>
       <c r="AC15" s="2">
-        <v>7876517661412.9102</v>
+        <v>2221725622737</v>
       </c>
       <c r="AD15" s="2">
-        <v>8536355024437.71</v>
+        <v>2393655246455</v>
       </c>
       <c r="AE15" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.7692841935194652</v>
+        <v>0.76133883081531173</v>
       </c>
       <c r="AF15" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.74582631107618735</v>
+        <v>0.74027286114924684</v>
       </c>
       <c r="AG15" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.79833806047268618</v>
+        <v>0.79833799748399148</v>
       </c>
       <c r="AH15" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>0.75046535514475643</v>
+        <v>0.69041530703145759</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -3185,104 +3185,104 @@
         <v>6</v>
       </c>
       <c r="C16" s="2">
-        <v>77651076.814576998</v>
+        <v>79788478</v>
       </c>
       <c r="D16" s="2">
-        <v>88296213.240158111</v>
+        <v>90701576</v>
       </c>
       <c r="E16" s="2">
-        <v>100037883.8142845</v>
+        <v>102730829</v>
       </c>
       <c r="F16" s="2">
-        <v>112626553.06485251</v>
+        <v>115617028</v>
       </c>
       <c r="G16" s="2">
-        <v>126031627.02040932</v>
+        <v>129325737</v>
       </c>
       <c r="H16" s="2">
-        <v>140169761.55201641</v>
+        <v>143770226</v>
       </c>
       <c r="I16" s="2">
-        <v>154560424.8434459</v>
+        <v>158449388</v>
       </c>
       <c r="J16" s="2">
-        <v>81346841.109990507</v>
+        <v>84396850</v>
       </c>
       <c r="K16" s="2">
-        <v>92554142.271308988</v>
+        <v>96007924</v>
       </c>
       <c r="L16" s="2">
-        <v>104922289.79185569</v>
+        <v>108810881</v>
       </c>
       <c r="M16" s="2">
-        <v>118189094.9351463</v>
+        <v>122532530</v>
       </c>
       <c r="N16" s="2">
-        <v>132323000.00288831</v>
+        <v>137138850</v>
       </c>
       <c r="O16" s="2">
-        <v>147236848.0666669</v>
+        <v>152537196</v>
       </c>
       <c r="P16" s="2">
-        <v>162427499.4575952</v>
+        <v>168201661</v>
       </c>
       <c r="Q16" s="2">
-        <v>396720463.62792802</v>
+        <v>396720519</v>
       </c>
       <c r="R16" s="2">
-        <v>450694115.74845898</v>
+        <v>450694028</v>
       </c>
       <c r="S16" s="2">
-        <v>510222218.80354595</v>
+        <v>510222264</v>
       </c>
       <c r="T16" s="2">
-        <v>574034781.83360398</v>
+        <v>574034751</v>
       </c>
       <c r="U16" s="2">
-        <v>642051278.95285106</v>
+        <v>642051224</v>
       </c>
       <c r="V16" s="2">
-        <v>713673253.50393009</v>
+        <v>713673230</v>
       </c>
       <c r="W16" s="2">
-        <v>786510117.21181798</v>
+        <v>786510155</v>
       </c>
       <c r="X16" s="2">
-        <v>5414249246407.2197</v>
+        <v>1902411729167</v>
       </c>
       <c r="Y16" s="2">
-        <v>6189590827937.2197</v>
+        <v>2172694830186</v>
       </c>
       <c r="Z16" s="2">
-        <v>7046865756828.0205</v>
+        <v>2470445151719</v>
       </c>
       <c r="AA16" s="2">
-        <v>7973025930138.8896</v>
+        <v>2789661739452</v>
       </c>
       <c r="AB16" s="2">
-        <v>8970510402492.3789</v>
+        <v>3130719094283</v>
       </c>
       <c r="AC16" s="2">
-        <v>10030649978384.559</v>
+        <v>3490783052240</v>
       </c>
       <c r="AD16" s="2">
-        <v>11129841461560.471</v>
+        <v>3858681377272</v>
       </c>
       <c r="AE16" s="3">
         <f>Table1[[#This Row],[BUILDINGS_2050]]/Table1[[#This Row],[BUILDINGS_2020]]-1</f>
-        <v>0.99044792659502612</v>
+        <v>0.98586803473052842</v>
       </c>
       <c r="AF16" s="3">
         <f>Table1[[#This Row],[DWELLINGS_2050]]/Table1[[#This Row],[DWELLINGS_2020]]-1</f>
-        <v>0.99672780456187704</v>
+        <v>0.99298505809162307</v>
       </c>
       <c r="AG16" s="3">
         <f>Table1[[#This Row],[OCCUPANTS_2050]]/Table1[[#This Row],[OCCUPANTS_2020]]-1</f>
-        <v>0.98252973899894847</v>
+        <v>0.98252955753972482</v>
       </c>
       <c r="AH16" s="3">
         <f>Table1[[#This Row],[COST_2050]]/Table1[[#This Row],[COST_2020]]-1</f>
-        <v>1.0556573875770487</v>
+        <v>1.0283103379317278</v>
       </c>
     </row>
   </sheetData>

--- a/summary_statistics/SUMMARY_REGION_2020-2050.xlsx
+++ b/summary_statistics/SUMMARY_REGION_2020-2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npaul/GEM/africa-exposure-data/summary_statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96AB0A47-268D-A040-BF53-D984D06BE2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896EA630-094E-674B-8C34-50627F9E0DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12380" yWindow="460" windowWidth="16040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,18 +97,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>BUILDINGS_2021</t>
-  </si>
-  <si>
-    <t>BUILDINGS_2036</t>
-  </si>
-  <si>
-    <t>BUILDINGS_20352</t>
-  </si>
-  <si>
-    <t>BUILDINGS_20202</t>
-  </si>
-  <si>
     <t>OCCUPANTS_2021</t>
   </si>
   <si>
@@ -155,6 +143,18 @@
   </si>
   <si>
     <t>INCR_DWELLINGS</t>
+  </si>
+  <si>
+    <t>BUILDINGS_2025</t>
+  </si>
+  <si>
+    <t>BUILDINGS_2030</t>
+  </si>
+  <si>
+    <t>BUILDINGS_2040</t>
+  </si>
+  <si>
+    <t>BUILDINGS_2045</t>
   </si>
 </sst>
 </file>
@@ -1202,11 +1202,11 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="SETTLEMENT"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="REGION"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="BUILDINGS_2020" dataDxfId="31" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{0F44B102-0DCF-9044-B015-0910884F9EF7}" name="BUILDINGS_20202" dataDxfId="30" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{EF527476-4E77-B14C-8308-DB3676D9FC97}" name="BUILDINGS_2021" dataDxfId="29" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{0F44B102-0DCF-9044-B015-0910884F9EF7}" name="BUILDINGS_2025" dataDxfId="30" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{EF527476-4E77-B14C-8308-DB3676D9FC97}" name="BUILDINGS_2030" dataDxfId="29" dataCellStyle="Comma"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="BUILDINGS_2035" dataDxfId="28" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{F2EEDC6A-06F3-2944-88BB-E14DDDFA5D5E}" name="BUILDINGS_20352" dataDxfId="27" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{D395F2D9-A806-FE42-B7DB-8EDA5B0240B5}" name="BUILDINGS_2036" dataDxfId="26" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{F2EEDC6A-06F3-2944-88BB-E14DDDFA5D5E}" name="BUILDINGS_2040" dataDxfId="27" dataCellStyle="Comma"/>
+    <tableColumn id="5" xr3:uid="{D395F2D9-A806-FE42-B7DB-8EDA5B0240B5}" name="BUILDINGS_2045" dataDxfId="26" dataCellStyle="Comma"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BUILDINGS_2050" dataDxfId="25" dataCellStyle="Comma"/>
     <tableColumn id="29" xr3:uid="{7E3A357A-2C24-4145-92DC-301ECE654583}" name="DWELLINGS_2020" dataDxfId="24" dataCellStyle="Comma"/>
     <tableColumn id="28" xr3:uid="{173245F9-7DB9-F245-8863-215365FEBFDB}" name="DWELLINGS_2025" dataDxfId="23" dataCellStyle="Comma"/>
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:AH16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,61 +1572,61 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>17</v>
@@ -1635,19 +1635,19 @@
         <v>18</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>20</v>
@@ -1656,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG1" s="1" t="s">
         <v>10</v>
